--- a/assets/findings/2024-03-04-findings.xlsx
+++ b/assets/findings/2024-03-04-findings.xlsx
@@ -642,8 +642,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -675,8 +677,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -741,8 +745,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -774,8 +780,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -840,8 +848,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -873,8 +883,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -939,8 +951,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -972,8 +986,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -1038,8 +1054,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -1071,8 +1089,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -1137,8 +1157,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1170,8 +1192,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -1236,8 +1260,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1269,8 +1295,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -1335,8 +1363,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1368,8 +1398,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -1434,8 +1466,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1467,8 +1501,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -1533,8 +1569,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1566,8 +1604,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -1632,8 +1672,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1665,8 +1707,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -1910,8 +1954,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>10105</v>
@@ -1946,8 +1992,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2171,8 +2219,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -2204,8 +2254,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2270,8 +2322,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -2303,8 +2357,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2369,8 +2425,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -2402,8 +2460,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -2631,8 +2691,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -2664,8 +2726,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -2730,8 +2794,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -2763,8 +2829,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -2829,8 +2897,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -2862,8 +2932,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -2928,8 +3000,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -2961,8 +3035,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -3027,8 +3103,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -3060,8 +3138,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -3126,8 +3206,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -3159,8 +3241,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -3225,8 +3309,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -3258,8 +3344,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -3324,8 +3412,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -3357,8 +3447,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -3423,8 +3515,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -3456,8 +3550,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -3522,8 +3618,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -3555,8 +3653,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -3621,8 +3721,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
@@ -3654,8 +3756,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -3720,8 +3824,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
@@ -3753,8 +3859,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -3819,8 +3927,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
@@ -3852,8 +3962,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -3918,8 +4030,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
@@ -3951,8 +4065,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -4017,8 +4133,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -4050,8 +4168,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -4116,8 +4236,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -4149,8 +4271,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -4215,8 +4339,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
@@ -4248,8 +4374,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -4314,8 +4442,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>1</v>
+      <c r="M19" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N19" t="n">
         <v>76683</v>
@@ -4350,8 +4480,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -4416,8 +4548,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -4449,8 +4583,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -4515,8 +4651,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -4548,8 +4686,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -4614,8 +4754,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -4647,8 +4789,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -4713,8 +4857,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -4746,8 +4892,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -4812,8 +4960,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -4845,8 +4995,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>1</v>
+      <c r="U24" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -4911,8 +5063,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
@@ -4944,8 +5098,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -5010,8 +5166,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
@@ -5043,8 +5201,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -5109,8 +5269,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
@@ -5142,8 +5304,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -5208,8 +5372,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
@@ -5241,8 +5407,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -5307,8 +5475,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
@@ -5340,8 +5510,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -5406,8 +5578,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -5439,8 +5613,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
+      <c r="U30" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -5505,8 +5681,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -5538,8 +5716,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>1</v>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -5604,8 +5784,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -5637,8 +5819,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -5703,8 +5887,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -5736,8 +5922,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>1</v>
+      <c r="U33" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -5802,8 +5990,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -5835,8 +6025,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -5901,8 +6093,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -5934,8 +6128,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -6000,8 +6196,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -6033,8 +6231,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>1</v>
+      <c r="U36" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -6099,8 +6299,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -6132,8 +6334,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>1</v>
+      <c r="U37" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -6198,8 +6402,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -6231,8 +6437,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>1</v>
+      <c r="U38" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -6297,8 +6505,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -6330,8 +6540,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>1</v>
+      <c r="U39" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -6396,8 +6608,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -6429,8 +6643,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -6495,8 +6711,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -6528,8 +6746,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -6594,8 +6814,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -6627,8 +6849,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>0</v>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -6693,8 +6917,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -6726,8 +6952,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>0</v>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -6792,8 +7020,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -6825,8 +7055,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -6891,8 +7123,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -6924,8 +7158,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -6990,8 +7226,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -7023,8 +7261,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -7089,8 +7329,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -7122,8 +7364,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -7188,8 +7432,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -7221,8 +7467,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -7287,8 +7535,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -7320,8 +7570,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>0</v>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -7386,8 +7638,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -7419,8 +7673,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -7485,8 +7741,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -7518,8 +7776,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>0</v>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -7584,8 +7844,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -7617,8 +7879,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -7683,8 +7947,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -7716,8 +7982,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -7782,8 +8050,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -7815,8 +8085,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>0</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -7881,8 +8153,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -7914,8 +8188,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -7980,8 +8256,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -8013,8 +8291,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -8079,8 +8359,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -8112,8 +8394,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -8178,8 +8462,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -8211,8 +8497,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -8277,8 +8565,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -8310,8 +8600,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>0</v>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -8376,8 +8668,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -8409,8 +8703,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>0</v>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -8475,8 +8771,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -8508,8 +8806,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>0</v>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -8574,8 +8874,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -8607,8 +8909,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>0</v>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -8673,8 +8977,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -8706,8 +9012,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U63" t="b">
-        <v>0</v>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -8772,8 +9080,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M64" t="b">
-        <v>0</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -8805,8 +9115,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U64" t="b">
-        <v>0</v>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -8871,8 +9183,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M65" t="b">
-        <v>0</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -8904,8 +9218,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U65" t="b">
-        <v>0</v>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -8970,8 +9286,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M66" t="b">
-        <v>0</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -9003,8 +9321,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U66" t="b">
-        <v>0</v>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -9069,8 +9389,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M67" t="b">
-        <v>0</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -9102,8 +9424,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U67" t="b">
-        <v>0</v>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -9168,8 +9492,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M68" t="b">
-        <v>0</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -9201,8 +9527,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U68" t="b">
-        <v>0</v>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -9267,8 +9595,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M69" t="b">
-        <v>0</v>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -9300,8 +9630,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U69" t="b">
-        <v>0</v>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -9366,8 +9698,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M70" t="b">
-        <v>0</v>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -9399,8 +9733,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U70" t="b">
-        <v>0</v>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -9465,8 +9801,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M71" t="b">
-        <v>0</v>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -9498,8 +9836,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U71" t="b">
-        <v>0</v>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -9564,8 +9904,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M72" t="b">
-        <v>0</v>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -9597,8 +9939,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U72" t="b">
-        <v>0</v>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -9663,8 +10007,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M73" t="b">
-        <v>0</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -9696,8 +10042,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U73" t="b">
-        <v>0</v>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -9762,8 +10110,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M74" t="b">
-        <v>0</v>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -9795,8 +10145,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U74" t="b">
-        <v>0</v>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -9861,8 +10213,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M75" t="b">
-        <v>0</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -9894,8 +10248,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U75" t="b">
-        <v>0</v>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -9960,8 +10316,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M76" t="b">
-        <v>0</v>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -9993,8 +10351,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U76" t="b">
-        <v>0</v>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -10059,8 +10419,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M77" t="b">
-        <v>0</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -10092,8 +10454,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U77" t="b">
-        <v>0</v>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -10158,8 +10522,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M78" t="b">
-        <v>0</v>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -10191,8 +10557,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U78" t="b">
-        <v>0</v>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -10257,8 +10625,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M79" t="b">
-        <v>0</v>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -10290,8 +10660,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U79" t="b">
-        <v>0</v>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -10356,8 +10728,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M80" t="b">
-        <v>0</v>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -10389,8 +10763,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U80" t="b">
-        <v>0</v>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -10455,8 +10831,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M81" t="b">
-        <v>0</v>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -10488,8 +10866,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U81" t="b">
-        <v>0</v>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -10554,8 +10934,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M82" t="b">
-        <v>0</v>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -10587,8 +10969,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U82" t="b">
-        <v>0</v>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
@@ -10972,8 +11356,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -11005,8 +11391,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -11071,8 +11459,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -11104,8 +11494,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -11170,8 +11562,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -11203,8 +11597,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -11269,8 +11665,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -11302,8 +11700,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -11368,8 +11768,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -11401,8 +11803,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -11467,8 +11871,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -11500,8 +11906,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -11566,8 +11974,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -11599,8 +12009,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -11665,8 +12077,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -11698,8 +12112,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -11764,8 +12180,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -11797,8 +12215,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -11863,8 +12283,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -11896,8 +12318,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -11962,8 +12386,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -11995,8 +12421,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -12061,8 +12489,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -12094,8 +12524,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -12160,8 +12592,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -12193,8 +12627,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -12259,8 +12695,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -12292,8 +12730,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -12358,8 +12798,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -12391,8 +12833,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -12457,8 +12901,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -12490,8 +12936,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -12556,8 +13004,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -12589,8 +13039,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -12655,8 +13107,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -12688,8 +13142,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -12754,8 +13210,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -12787,8 +13245,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -12853,8 +13313,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -12886,8 +13348,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -12952,8 +13416,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -12985,8 +13451,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -13051,8 +13519,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -13084,8 +13554,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -13150,8 +13622,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -13183,8 +13657,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -13249,8 +13725,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -13282,8 +13760,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -13348,8 +13828,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -13381,8 +13863,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -13447,8 +13931,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -13480,8 +13966,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -13546,8 +14034,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -13579,8 +14069,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -13645,8 +14137,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -13678,8 +14172,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -13744,8 +14240,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -13777,8 +14275,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -13843,8 +14343,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -13876,8 +14378,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -13942,8 +14446,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>1</v>
+      <c r="M32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N32" t="n">
         <v>459643</v>
@@ -13978,8 +14484,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -14044,8 +14552,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>1</v>
+      <c r="M33" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N33" t="n">
         <v>7536808</v>
@@ -14080,8 +14590,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -14146,8 +14658,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>1</v>
+      <c r="M34" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N34" t="n">
         <v>1417335</v>
@@ -14182,8 +14696,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -14248,8 +14764,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -14281,8 +14799,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -14347,8 +14867,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -14380,8 +14902,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -14446,8 +14970,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
@@ -14479,8 +15005,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -14545,8 +15073,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -14578,8 +15108,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -14644,8 +15176,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" s="1" t="inlineStr">
         <is>
@@ -14677,8 +15211,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -14743,8 +15279,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -14776,8 +15314,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -14842,8 +15382,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" s="1" t="inlineStr">
         <is>
@@ -14875,8 +15417,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -14941,8 +15485,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -14974,8 +15520,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>0</v>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -15040,8 +15588,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -15073,8 +15623,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>0</v>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -15139,8 +15691,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -15172,8 +15726,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -15238,8 +15794,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -15271,8 +15829,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -15337,8 +15897,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -15370,8 +15932,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -15436,8 +16000,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" s="1" t="inlineStr">
         <is>
@@ -15469,8 +16035,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -15535,8 +16103,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -15568,8 +16138,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -15885,8 +16457,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -15918,8 +16492,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -15984,8 +16560,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -16017,8 +16595,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -16244,8 +16824,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -16277,8 +16859,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -16343,8 +16927,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -16376,8 +16962,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -16442,8 +17030,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -16475,8 +17065,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -16541,8 +17133,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -16574,8 +17168,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -16805,8 +17401,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>10105</v>
@@ -16841,8 +17439,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -16907,8 +17507,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>1</v>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N3" t="n">
         <v>76683</v>
@@ -16943,8 +17545,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -17009,8 +17613,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -17042,8 +17648,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -17108,8 +17716,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -17141,8 +17751,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -17207,8 +17819,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -17240,8 +17854,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -17306,8 +17922,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -17339,8 +17957,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -17574,8 +18194,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -17607,8 +18229,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -17673,8 +18297,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -17706,8 +18332,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -17772,8 +18400,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -17805,8 +18435,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -17871,8 +18503,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -17904,8 +18538,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -17970,8 +18606,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -18003,8 +18641,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -18069,8 +18709,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -18102,8 +18744,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -18168,8 +18812,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -18201,8 +18847,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -18267,8 +18915,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -18300,8 +18950,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -18366,8 +19018,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>1</v>
+      <c r="M10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N10" t="n">
         <v>459643</v>
@@ -18402,8 +19056,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -18468,8 +19124,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>1</v>
+      <c r="M11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N11" t="n">
         <v>7536808</v>
@@ -18504,8 +19162,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -18570,8 +19230,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>1</v>
+      <c r="M12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N12" t="n">
         <v>1417335</v>
@@ -18606,8 +19268,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -18851,8 +19515,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -18884,8 +19550,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -18950,8 +19618,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -18983,8 +19653,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -19210,8 +19882,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -19243,8 +19917,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -19309,8 +19985,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -19342,8 +20020,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -19408,8 +20088,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -19441,8 +20123,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -19507,8 +20191,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -19540,8 +20226,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -19606,8 +20294,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -19639,8 +20329,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -19705,8 +20397,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -19738,8 +20432,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -19804,8 +20500,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -19837,8 +20535,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -19903,8 +20603,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>1</v>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N9" t="n">
         <v>83873</v>
@@ -19939,8 +20641,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -20005,8 +20709,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -20038,8 +20744,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -20104,8 +20812,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -20137,8 +20847,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -20380,8 +21092,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -20413,8 +21127,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -20638,8 +21354,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -20671,8 +21389,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -20737,8 +21457,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -20770,8 +21492,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -20836,8 +21560,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -20869,8 +21595,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -20935,8 +21663,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -20968,8 +21698,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -21034,8 +21766,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -21067,8 +21801,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -21133,8 +21869,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -21166,8 +21904,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -21232,8 +21972,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -21265,8 +22007,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -21331,8 +22075,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -21364,8 +22110,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -21430,8 +22178,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -21463,8 +22213,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -21529,8 +22281,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -21562,8 +22316,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -21628,8 +22384,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -21661,8 +22419,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -21727,8 +22487,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -21760,8 +22522,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -21826,8 +22590,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -21859,8 +22625,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -21925,8 +22693,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -21958,8 +22728,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -22024,8 +22796,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -22057,8 +22831,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -22123,8 +22899,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -22156,8 +22934,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -22222,8 +23002,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -22255,8 +23037,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -22321,8 +23105,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -22354,8 +23140,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -22420,8 +23208,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -22453,8 +23243,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -22519,8 +23311,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -22552,8 +23346,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>0</v>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -22618,8 +23414,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -22651,8 +23449,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>0</v>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -22717,8 +23517,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -22750,8 +23552,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>0</v>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -22816,8 +23620,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -22849,8 +23655,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -22915,8 +23723,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -22948,8 +23758,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -23014,8 +23826,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -23047,8 +23861,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -23113,8 +23929,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -23146,8 +23964,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -23212,8 +24032,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -23245,8 +24067,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -23311,8 +24135,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -23344,8 +24170,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>0</v>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -23410,8 +24238,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -23443,8 +24273,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>0</v>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -23509,8 +24341,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -23542,8 +24376,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>0</v>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -23608,8 +24444,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -23641,8 +24479,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>0</v>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -23707,8 +24547,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -23740,8 +24582,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>0</v>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -23806,8 +24650,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -23839,8 +24685,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>0</v>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -23905,8 +24753,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -23938,8 +24788,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>0</v>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -24004,8 +24856,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -24037,8 +24891,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>0</v>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -24103,8 +24959,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -24136,8 +24994,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -24202,8 +25062,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -24235,8 +25097,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -24301,8 +25165,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -24334,8 +25200,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -24400,8 +25268,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -24433,8 +25303,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -24499,8 +25371,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -24532,8 +25406,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -24598,8 +25474,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -24631,8 +25509,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>0</v>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -24697,8 +25577,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -24730,8 +25612,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>0</v>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -24796,8 +25680,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -24829,8 +25715,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -24895,8 +25783,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -24928,8 +25818,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -24994,8 +25886,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -25027,8 +25921,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -25093,8 +25989,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -25126,8 +26024,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -25192,8 +26092,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -25225,8 +26127,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -25291,8 +26195,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -25324,8 +26230,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>0</v>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -25390,8 +26298,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -25423,8 +26333,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -25489,8 +26401,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -25522,8 +26436,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>0</v>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -25588,8 +26504,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -25621,8 +26539,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -25687,8 +26607,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -25720,8 +26642,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -25786,8 +26710,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -25819,8 +26745,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>0</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -25885,8 +26813,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -25918,8 +26848,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -25984,8 +26916,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -26017,8 +26951,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -26083,8 +27019,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -26116,8 +27054,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -26182,8 +27122,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -26215,8 +27157,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -26281,8 +27225,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -26314,8 +27260,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>0</v>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -26380,8 +27328,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -26413,8 +27363,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>0</v>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -26479,8 +27431,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -26512,8 +27466,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>0</v>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -26578,8 +27534,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -26611,8 +27569,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>0</v>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -26956,8 +27916,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
@@ -26989,8 +27951,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -27055,8 +28019,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -27088,8 +28054,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -27154,8 +28122,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -27187,8 +28157,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>1</v>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -27253,8 +28225,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -27286,8 +28260,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>1</v>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -27352,8 +28328,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
@@ -27385,8 +28363,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>1</v>
+      <c r="U6" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -27451,8 +28431,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
@@ -27484,8 +28466,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -27550,8 +28534,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
@@ -27583,8 +28569,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -27649,8 +28637,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
@@ -27682,8 +28672,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -27748,8 +28740,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
@@ -27781,8 +28775,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>1</v>
+      <c r="U10" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -27847,8 +28843,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -27880,8 +28878,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>1</v>
+      <c r="U11" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -27946,8 +28946,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
@@ -27979,8 +28981,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>1</v>
+      <c r="U12" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -28045,8 +29049,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
@@ -28078,8 +29084,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>1</v>
+      <c r="U13" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -28144,8 +29152,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
@@ -28177,8 +29187,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -28243,8 +29255,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
@@ -28276,8 +29290,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -28342,8 +29358,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -28375,8 +29393,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>1</v>
+      <c r="U16" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -28441,8 +29461,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -28474,8 +29496,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>1</v>
+      <c r="U17" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -28540,8 +29564,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
@@ -28573,8 +29599,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -28639,8 +29667,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -28672,8 +29702,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -28738,8 +29770,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -28771,8 +29805,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -28837,8 +29873,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M21" t="b">
-        <v>0</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -28870,8 +29908,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U21" t="b">
-        <v>1</v>
+      <c r="U21" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
@@ -28936,8 +29976,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M22" t="b">
-        <v>0</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -28969,8 +30011,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U22" t="b">
-        <v>1</v>
+      <c r="U22" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
@@ -29035,8 +30079,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M23" t="b">
-        <v>0</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -29068,8 +30114,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U23" t="b">
-        <v>1</v>
+      <c r="U23" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
@@ -29134,8 +30182,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M24" t="b">
-        <v>0</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
@@ -29167,8 +30217,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U24" t="b">
-        <v>0</v>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
@@ -29233,8 +30285,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M25" t="b">
-        <v>0</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
@@ -29266,8 +30320,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U25" t="b">
-        <v>0</v>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
@@ -29332,8 +30388,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M26" t="b">
-        <v>0</v>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
@@ -29365,8 +30423,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U26" t="b">
-        <v>0</v>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
@@ -29431,8 +30491,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M27" t="b">
-        <v>0</v>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
@@ -29464,8 +30526,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U27" t="b">
-        <v>0</v>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
@@ -29530,8 +30594,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M28" t="b">
-        <v>0</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
@@ -29563,8 +30629,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U28" t="b">
-        <v>0</v>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
@@ -29629,8 +30697,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M29" t="b">
-        <v>0</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -29662,8 +30732,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U29" t="b">
-        <v>1</v>
+      <c r="U29" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
@@ -29728,8 +30800,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M30" t="b">
-        <v>0</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -29761,8 +30835,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U30" t="b">
-        <v>1</v>
+      <c r="U30" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
@@ -29827,8 +30903,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M31" t="b">
-        <v>0</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -29860,8 +30938,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U31" t="b">
-        <v>1</v>
+      <c r="U31" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
@@ -29926,8 +31006,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M32" t="b">
-        <v>0</v>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -29959,8 +31041,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U32" t="b">
-        <v>1</v>
+      <c r="U32" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
@@ -30025,8 +31109,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M33" t="b">
-        <v>0</v>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -30058,8 +31144,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U33" t="b">
-        <v>1</v>
+      <c r="U33" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
@@ -30124,8 +31212,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M34" t="b">
-        <v>0</v>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -30157,8 +31247,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U34" t="b">
-        <v>1</v>
+      <c r="U34" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
@@ -30223,8 +31315,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M35" t="b">
-        <v>0</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -30256,8 +31350,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U35" t="b">
-        <v>1</v>
+      <c r="U35" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
@@ -30322,8 +31418,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M36" t="b">
-        <v>0</v>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -30355,8 +31453,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U36" t="b">
-        <v>1</v>
+      <c r="U36" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
@@ -30421,8 +31521,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M37" t="b">
-        <v>0</v>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -30454,8 +31556,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U37" t="b">
-        <v>0</v>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
@@ -30520,8 +31624,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M38" t="b">
-        <v>0</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -30553,8 +31659,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U38" t="b">
-        <v>0</v>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
@@ -30619,8 +31727,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M39" t="b">
-        <v>0</v>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -30652,8 +31762,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U39" t="b">
-        <v>0</v>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
@@ -30718,8 +31830,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M40" t="b">
-        <v>0</v>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -30751,8 +31865,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U40" t="b">
-        <v>0</v>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
@@ -30817,8 +31933,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M41" t="b">
-        <v>0</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -30850,8 +31968,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U41" t="b">
-        <v>0</v>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
@@ -30916,8 +32036,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M42" t="b">
-        <v>0</v>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -30949,8 +32071,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U42" t="b">
-        <v>1</v>
+      <c r="U42" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
@@ -31015,8 +32139,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M43" t="b">
-        <v>0</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -31048,8 +32174,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U43" t="b">
-        <v>1</v>
+      <c r="U43" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
@@ -31114,8 +32242,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M44" t="b">
-        <v>0</v>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -31147,8 +32277,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U44" t="b">
-        <v>0</v>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
@@ -31213,8 +32345,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M45" t="b">
-        <v>0</v>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -31246,8 +32380,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U45" t="b">
-        <v>0</v>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
@@ -31312,8 +32448,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M46" t="b">
-        <v>0</v>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -31345,8 +32483,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U46" t="b">
-        <v>0</v>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
@@ -31411,8 +32551,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M47" t="b">
-        <v>0</v>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -31444,8 +32586,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U47" t="b">
-        <v>0</v>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
@@ -31510,8 +32654,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M48" t="b">
-        <v>0</v>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -31543,8 +32689,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U48" t="b">
-        <v>0</v>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
@@ -31609,8 +32757,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M49" t="b">
-        <v>0</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -31642,8 +32792,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U49" t="b">
-        <v>0</v>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
@@ -31708,8 +32860,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M50" t="b">
-        <v>0</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -31741,8 +32895,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U50" t="b">
-        <v>0</v>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
@@ -31807,8 +32963,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M51" t="b">
-        <v>0</v>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -31840,8 +32998,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U51" t="b">
-        <v>0</v>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
@@ -31906,8 +33066,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M52" t="b">
-        <v>0</v>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -31939,8 +33101,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U52" t="b">
-        <v>0</v>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
@@ -32005,8 +33169,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M53" t="b">
-        <v>0</v>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -32038,8 +33204,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U53" t="b">
-        <v>0</v>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
@@ -32104,8 +33272,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M54" t="b">
-        <v>0</v>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -32137,8 +33307,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U54" t="b">
-        <v>0</v>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
@@ -32203,8 +33375,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M55" t="b">
-        <v>0</v>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -32236,8 +33410,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U55" t="b">
-        <v>0</v>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
@@ -32302,8 +33478,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M56" t="b">
-        <v>0</v>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -32335,8 +33513,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U56" t="b">
-        <v>0</v>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
@@ -32401,8 +33581,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -32434,8 +33616,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U57" t="b">
-        <v>0</v>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
@@ -32500,8 +33684,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M58" t="b">
-        <v>0</v>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -32533,8 +33719,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U58" t="b">
-        <v>0</v>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
@@ -32599,8 +33787,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M59" t="b">
-        <v>0</v>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -32632,8 +33822,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U59" t="b">
-        <v>0</v>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
@@ -32698,8 +33890,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M60" t="b">
-        <v>0</v>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -32731,8 +33925,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U60" t="b">
-        <v>0</v>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
@@ -32797,8 +33993,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -32830,8 +34028,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U61" t="b">
-        <v>0</v>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
@@ -32896,8 +34096,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M62" t="b">
-        <v>0</v>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -32929,8 +34131,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U62" t="b">
-        <v>0</v>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
@@ -32995,8 +34199,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M63" t="b">
-        <v>0</v>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -33028,8 +34234,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U63" t="b">
-        <v>0</v>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
@@ -33094,8 +34302,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M64" t="b">
-        <v>0</v>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -33127,8 +34337,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U64" t="b">
-        <v>0</v>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
@@ -33193,8 +34405,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M65" t="b">
-        <v>0</v>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -33226,8 +34440,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U65" t="b">
-        <v>0</v>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
@@ -33292,8 +34508,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M66" t="b">
-        <v>0</v>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -33325,8 +34543,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U66" t="b">
-        <v>0</v>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
@@ -33391,8 +34611,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M67" t="b">
-        <v>0</v>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -33424,8 +34646,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U67" t="b">
-        <v>0</v>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
@@ -33490,8 +34714,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M68" t="b">
-        <v>0</v>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -33523,8 +34749,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U68" t="b">
-        <v>0</v>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
@@ -33589,8 +34817,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M69" t="b">
-        <v>0</v>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -33622,8 +34852,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U69" t="b">
-        <v>0</v>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
@@ -33688,8 +34920,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M70" t="b">
-        <v>0</v>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -33721,8 +34955,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U70" t="b">
-        <v>0</v>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
@@ -33787,8 +35023,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M71" t="b">
-        <v>0</v>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -33820,8 +35058,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U71" t="b">
-        <v>0</v>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
@@ -33886,8 +35126,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M72" t="b">
-        <v>0</v>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -33919,8 +35161,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U72" t="b">
-        <v>0</v>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
@@ -33985,8 +35229,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M73" t="b">
-        <v>0</v>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -34018,8 +35264,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U73" t="b">
-        <v>0</v>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
@@ -34084,8 +35332,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M74" t="b">
-        <v>0</v>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -34117,8 +35367,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U74" t="b">
-        <v>0</v>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
@@ -34183,8 +35435,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M75" t="b">
-        <v>0</v>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -34216,8 +35470,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U75" t="b">
-        <v>0</v>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
@@ -34282,8 +35538,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M76" t="b">
-        <v>0</v>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -34315,8 +35573,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U76" t="b">
-        <v>0</v>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
@@ -34381,8 +35641,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M77" t="b">
-        <v>0</v>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -34414,8 +35676,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U77" t="b">
-        <v>0</v>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
@@ -34480,8 +35744,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M78" t="b">
-        <v>0</v>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -34513,8 +35779,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U78" t="b">
-        <v>0</v>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
@@ -34579,8 +35847,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M79" t="b">
-        <v>0</v>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -34612,8 +35882,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U79" t="b">
-        <v>0</v>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
@@ -34678,8 +35950,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M80" t="b">
-        <v>0</v>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -34711,8 +35985,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U80" t="b">
-        <v>0</v>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
@@ -34777,8 +36053,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M81" t="b">
-        <v>0</v>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -34810,8 +36088,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U81" t="b">
-        <v>0</v>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
@@ -35193,8 +36473,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -35226,8 +36508,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -35292,8 +36576,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -35325,8 +36611,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -35391,8 +36679,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -35424,8 +36714,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -35490,8 +36782,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
@@ -35523,8 +36817,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -35589,8 +36885,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -35622,8 +36920,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -35688,8 +36988,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -35721,8 +37023,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -35787,8 +37091,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>1</v>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N8" t="n">
         <v>104908</v>
@@ -35823,8 +37129,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -35889,8 +37197,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -35922,8 +37232,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -35988,8 +37300,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -36021,8 +37335,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -36087,8 +37403,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
@@ -36120,8 +37438,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -36186,8 +37506,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -36219,8 +37541,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -36285,8 +37609,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
@@ -36318,8 +37644,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -36384,8 +37712,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -36417,8 +37747,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -36483,8 +37815,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -36516,8 +37850,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -36582,8 +37918,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -36615,8 +37953,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -36681,8 +38021,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -36714,8 +38056,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -36780,8 +38124,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -36813,8 +38159,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -36879,8 +38227,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
@@ -36912,8 +38262,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -36978,8 +38330,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -37011,8 +38365,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -37272,8 +38628,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -37305,8 +38663,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -37371,8 +38731,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -37404,8 +38766,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -37470,8 +38834,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -37503,8 +38869,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -37569,8 +38937,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -37602,8 +38972,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -37668,8 +39040,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -37701,8 +39075,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -37767,8 +39143,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -37800,8 +39178,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>1</v>
+      <c r="U7" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -37866,8 +39246,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -37899,8 +39281,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>1</v>
+      <c r="U8" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -37965,8 +39349,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>1</v>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N9" t="n">
         <v>83873</v>
@@ -38001,8 +39387,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -38240,8 +39628,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -38273,8 +39663,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -38339,8 +39731,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -38372,8 +39766,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -38438,8 +39834,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -38471,8 +39869,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -38537,8 +39937,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -38570,8 +39972,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -38636,8 +40040,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -38669,8 +40075,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -38902,8 +40310,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -38935,8 +40345,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>1</v>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -39160,8 +40572,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>1</v>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
       </c>
       <c r="N2" t="n">
         <v>104908</v>
@@ -39196,8 +40610,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -39262,8 +40678,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
@@ -39295,8 +40713,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -39361,8 +40781,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
@@ -39394,8 +40816,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -39623,8 +41047,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -39656,8 +41082,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -39881,8 +41309,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -39914,8 +41344,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -39980,8 +41412,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -40013,8 +41447,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -40079,8 +41515,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M4" t="b">
-        <v>0</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -40112,8 +41550,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U4" t="b">
-        <v>0</v>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -40178,8 +41618,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M5" t="b">
-        <v>0</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -40211,8 +41653,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U5" t="b">
-        <v>0</v>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
@@ -40277,8 +41721,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M6" t="b">
-        <v>0</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -40310,8 +41756,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U6" t="b">
-        <v>0</v>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
@@ -40376,8 +41824,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M7" t="b">
-        <v>0</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -40409,8 +41859,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U7" t="b">
-        <v>0</v>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
@@ -40475,8 +41927,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M8" t="b">
-        <v>0</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -40508,8 +41962,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U8" t="b">
-        <v>0</v>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
@@ -40574,8 +42030,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M9" t="b">
-        <v>0</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -40607,8 +42065,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U9" t="b">
-        <v>0</v>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
@@ -40673,8 +42133,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M10" t="b">
-        <v>0</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -40706,8 +42168,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
@@ -40772,8 +42236,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M11" t="b">
-        <v>0</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -40805,8 +42271,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U11" t="b">
-        <v>0</v>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
@@ -40871,8 +42339,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M12" t="b">
-        <v>0</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
@@ -40904,8 +42374,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U12" t="b">
-        <v>0</v>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
@@ -40970,8 +42442,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M13" t="b">
-        <v>0</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -41003,8 +42477,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="U13" t="b">
-        <v>0</v>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
@@ -41069,8 +42545,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M14" t="b">
-        <v>0</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -41102,8 +42580,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U14" t="b">
-        <v>0</v>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
@@ -41168,8 +42648,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M15" t="b">
-        <v>0</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -41201,8 +42683,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U15" t="b">
-        <v>0</v>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
@@ -41267,8 +42751,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M16" t="b">
-        <v>0</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -41300,8 +42786,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U16" t="b">
-        <v>0</v>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
@@ -41366,8 +42854,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M17" t="b">
-        <v>0</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -41399,8 +42889,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U17" t="b">
-        <v>0</v>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
@@ -41465,8 +42957,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M18" t="b">
-        <v>0</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -41498,8 +42992,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U18" t="b">
-        <v>0</v>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
@@ -41564,8 +43060,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M19" t="b">
-        <v>0</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -41597,8 +43095,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U19" t="b">
-        <v>0</v>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
@@ -41663,8 +43163,10 @@
           <t>YES</t>
         </is>
       </c>
-      <c r="M20" t="b">
-        <v>0</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -41696,8 +43198,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U20" t="b">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
@@ -41957,8 +43461,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M2" t="b">
-        <v>0</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -41990,8 +43496,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U2" t="b">
-        <v>0</v>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -42056,8 +43564,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -42089,8 +43599,10 @@
           <t>NO</t>
         </is>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
